--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26820" windowHeight="11840"/>
+    <workbookView windowWidth="26820" windowHeight="11840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="菲律宾" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>app_name</t>
   </si>
@@ -38,13 +38,22 @@
     <t>1.0.1</t>
   </si>
   <si>
-    <t>https://bitbucket.org/MartinFelis/love-android-sdl2/downloads/love-0.11.0-android-alpha1-debug.apk</t>
+    <t>https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa</t>
   </si>
   <si>
     <t>1.0.2</t>
   </si>
   <si>
     <t>1.0.3</t>
+  </si>
+  <si>
+    <t>monas</t>
+  </si>
+  <si>
+    <t>com.modalnasional.fintech</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
   </si>
 </sst>
 </file>
@@ -52,8 +61,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -75,7 +84,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,122 +182,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,121 +228,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,61 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,17 +431,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,35 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,142 +524,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,14 +997,14 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.9140625" customWidth="1"/>
-    <col min="2" max="2" width="17.1875" customWidth="1"/>
+    <col min="2" max="2" width="22.7890625" customWidth="1"/>
     <col min="3" max="3" width="13.1484375" customWidth="1"/>
     <col min="4" max="4" width="92.3125" customWidth="1"/>
   </cols>
@@ -1058,9 +1067,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://bitbucket.org/MartinFelis/love-android-sdl2/downloads/love-0.11.0-android-alpha1-debug.apk"/>
-    <hyperlink ref="D3" r:id="rId1" display="https://bitbucket.org/MartinFelis/love-android-sdl2/downloads/love-0.11.0-android-alpha1-debug.apk"/>
-    <hyperlink ref="D4" r:id="rId1" display="https://bitbucket.org/MartinFelis/love-android-sdl2/downloads/love-0.11.0-android-alpha1-debug.apk"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1070,13 +1079,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="29.03125" customWidth="1"/>
+    <col min="3" max="3" width="14.5859375" customWidth="1"/>
+    <col min="4" max="4" width="70.9609375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1092,7 +1106,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26820" windowHeight="11840" activeTab="1"/>
+    <workbookView windowWidth="26820" windowHeight="11840"/>
   </bookViews>
   <sheets>
-    <sheet name="菲律宾" sheetId="1" r:id="rId1"/>
-    <sheet name="印度尼西亚" sheetId="2" r:id="rId2"/>
+    <sheet name="PhiApps" sheetId="1" r:id="rId1"/>
+    <sheet name="Indonesia" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -61,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,6 +78,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,6 +121,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -114,61 +136,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,16 +160,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,21 +214,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +228,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,67 +360,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,97 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,24 +419,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,7 +441,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +476,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -493,173 +519,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,8 +997,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1081,8 +1081,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26820" windowHeight="11840"/>
+    <workbookView windowWidth="20260" windowHeight="7360"/>
   </bookViews>
   <sheets>
     <sheet name="PhiApps" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>app_name</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>1.0.3</t>
+  </si>
+  <si>
+    <t>IPeso</t>
+  </si>
+  <si>
+    <t>com.linkcredited.ipeso</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa</t>
   </si>
   <si>
     <t>monas</t>
@@ -61,9 +73,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -91,20 +103,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -113,16 +111,84 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,84 +202,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,181 +246,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +458,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -457,6 +478,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,188 +525,153 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,13 +1007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.9140625" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1065,11 +1077,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
     <hyperlink ref="D3" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
     <hyperlink ref="D4" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1108,13 +1135,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20260" windowHeight="7360"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
-    <sheet name="PhiApps" sheetId="1" r:id="rId1"/>
-    <sheet name="Indonesia" sheetId="2" r:id="rId2"/>
+    <sheet name="Indonesia" sheetId="2" r:id="rId1"/>
+    <sheet name="Philippines" sheetId="1" r:id="rId2"/>
+    <sheet name="Malaysia" sheetId="3" r:id="rId3"/>
+    <sheet name="Mexico" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>app_name</t>
   </si>
@@ -29,6 +31,33 @@
     <t>bundle_url</t>
   </si>
   <si>
+    <t>Monas</t>
+  </si>
+  <si>
+    <t>com.modalnasional.fintech</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa</t>
+  </si>
+  <si>
+    <t>PinjamIndo</t>
+  </si>
+  <si>
+    <t>Adamodal</t>
+  </si>
+  <si>
+    <t>IPeso</t>
+  </si>
+  <si>
+    <t>com.linkcredited.ipeso</t>
+  </si>
+  <si>
+    <t>https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa</t>
+  </si>
+  <si>
     <t>PautangPeso</t>
   </si>
   <si>
@@ -36,36 +65,6 @@
   </si>
   <si>
     <t>1.0.1</t>
-  </si>
-  <si>
-    <t>https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
-    <t>1.0.3</t>
-  </si>
-  <si>
-    <t>IPeso</t>
-  </si>
-  <si>
-    <t>com.linkcredited.ipeso</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa</t>
-  </si>
-  <si>
-    <t>monas</t>
-  </si>
-  <si>
-    <t>com.modalnasional.fintech</t>
-  </si>
-  <si>
-    <t>2.0.1</t>
   </si>
 </sst>
 </file>
@@ -95,9 +94,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,10 +109,100 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,106 +214,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,13 +239,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,25 +353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,43 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,85 +401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,35 +433,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +453,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,171 +530,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,18 +1006,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.9140625" customWidth="1"/>
-    <col min="2" max="2" width="22.7890625" customWidth="1"/>
-    <col min="3" max="3" width="13.1484375" customWidth="1"/>
-    <col min="4" max="4" width="92.3125" customWidth="1"/>
+    <col min="1" max="1" width="11.4609375" customWidth="1"/>
+    <col min="2" max="2" width="29.03125" customWidth="1"/>
+    <col min="3" max="3" width="14.5859375" customWidth="1"/>
+    <col min="4" max="4" width="70.9609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1051,13 +1050,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -1065,38 +1064,23 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D3" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D4" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1106,17 +1090,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="29.03125" customWidth="1"/>
-    <col min="3" max="3" width="14.5859375" customWidth="1"/>
-    <col min="4" max="4" width="70.9609375" customWidth="1"/>
+    <col min="1" max="1" width="24.2109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7890625" customWidth="1"/>
+    <col min="3" max="3" width="13.1484375" customWidth="1"/>
+    <col min="4" max="4" width="92.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1135,23 +1120,110 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.4609375" customWidth="1"/>
+    <col min="2" max="2" width="25.78125" customWidth="1"/>
+    <col min="3" max="3" width="15.6171875" customWidth="1"/>
+    <col min="4" max="4" width="48.828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="24.734375" customWidth="1"/>
+    <col min="4" max="4" width="50.78125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15200"/>
+    <workbookView windowHeight="15200" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Indonesia" sheetId="2" r:id="rId1"/>
-    <sheet name="Philippines" sheetId="1" r:id="rId2"/>
+    <sheet name="Philippines" sheetId="1" r:id="rId1"/>
+    <sheet name="Indonesia" sheetId="2" r:id="rId2"/>
     <sheet name="Malaysia" sheetId="3" r:id="rId3"/>
     <sheet name="Mexico" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>app_name</t>
   </si>
@@ -31,28 +31,13 @@
     <t>bundle_url</t>
   </si>
   <si>
-    <t>Monas</t>
-  </si>
-  <si>
-    <t>com.modalnasional.fintech</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa</t>
-  </si>
-  <si>
-    <t>PinjamIndo</t>
-  </si>
-  <si>
-    <t>Adamodal</t>
-  </si>
-  <si>
     <t>IPeso</t>
   </si>
   <si>
     <t>com.linkcredited.ipeso</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa</t>
@@ -66,6 +51,9 @@
   <si>
     <t>1.0.1</t>
   </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa</t>
+  </si>
 </sst>
 </file>
 
@@ -73,9 +61,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,6 +84,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,82 +113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +129,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -216,7 +176,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +191,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,13 +233,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,61 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,43 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,49 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,11 +421,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,15 +480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,45 +501,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -530,60 +509,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,82 +580,82 @@
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,94 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="11.4609375" customWidth="1"/>
-    <col min="2" max="2" width="29.03125" customWidth="1"/>
-    <col min="3" max="3" width="14.5859375" customWidth="1"/>
-    <col min="4" max="4" width="70.9609375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D3" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D4" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1120,37 +1024,74 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/hzy3774/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
     <hyperlink ref="D2" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
   </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.4609375" customWidth="1"/>
+    <col min="2" max="2" width="29.03125" customWidth="1"/>
+    <col min="3" max="3" width="14.5859375" customWidth="1"/>
+    <col min="4" max="4" width="70.9609375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1198,14 +1139,15 @@
   <sheetPr/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
     <col min="2" max="2" width="24.734375" customWidth="1"/>
-    <col min="4" max="4" width="50.78125" customWidth="1"/>
+    <col min="4" max="4" width="57.2890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>app_name</t>
   </si>
@@ -31,6 +31,18 @@
     <t>bundle_url</t>
   </si>
   <si>
+    <t>PautangPeso</t>
+  </si>
+  <si>
+    <t>ph.lhl.pautangpeso</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa</t>
+  </si>
+  <si>
     <t>IPeso</t>
   </si>
   <si>
@@ -41,12 +53,6 @@
   </si>
   <si>
     <t>https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa</t>
-  </si>
-  <si>
-    <t>PautangPeso</t>
-  </si>
-  <si>
-    <t>ph.lhl.pautangpeso</t>
   </si>
   <si>
     <t>1.0.1</t>
@@ -60,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -76,6 +82,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -89,9 +103,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,16 +186,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -122,13 +203,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,67 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -206,13 +219,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +424,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,7 +479,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,24 +501,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,143 +524,123 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,36 +649,39 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,13 +1003,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1046,14 +1055,29 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15200" activeTab="3"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>app_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>bundle_url</t>
   </si>
   <si>
+    <t>build</t>
+  </si>
+  <si>
     <t>PautangPeso</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa</t>
@@ -66,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,17 +102,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,8 +125,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,92 +157,74 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,39 +430,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,7 +452,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,142 +535,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,13 +1009,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1017,7 +1023,7 @@
     <col min="4" max="4" width="92.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,54 +1036,84 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
+    <hyperlink ref="D2" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1087,13 +1123,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.4609375" customWidth="1"/>
     <col min="2" max="2" width="29.03125" customWidth="1"/>
@@ -1101,7 +1137,7 @@
     <col min="4" max="4" width="70.9609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,6 +1149,9 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1124,13 +1163,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.4609375" customWidth="1"/>
     <col min="2" max="2" width="25.78125" customWidth="1"/>
@@ -1138,7 +1177,7 @@
     <col min="4" max="4" width="48.828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1150,6 +1189,9 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1161,20 +1203,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.453125" customWidth="1"/>
     <col min="2" max="2" width="24.734375" customWidth="1"/>
     <col min="4" max="4" width="57.2890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,6 +1228,9 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>app_name</t>
   </si>
@@ -34,13 +34,19 @@
     <t>build</t>
   </si>
   <si>
+    <t>PautangPeso(test)</t>
+  </si>
+  <si>
+    <t>ph.lhl.pautangpeso</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa</t>
+  </si>
+  <si>
     <t>PautangPeso</t>
-  </si>
-  <si>
-    <t>ph.lhl.pautangpeso</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa</t>
@@ -72,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,14 +103,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,8 +116,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,8 +140,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -142,22 +223,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -165,66 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,31 +251,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,145 +323,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +436,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,11 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,24 +495,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,11 +521,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,142 +541,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1059,7 +1065,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1068,24 +1074,24 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1093,10 +1099,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1105,15 +1111,33 @@
         <v>15</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
-    <hyperlink ref="D2" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
+    <hyperlink ref="D3" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa"/>
+    <hyperlink ref="D2" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>app_name</t>
   </si>
@@ -34,19 +34,22 @@
     <t>build</t>
   </si>
   <si>
+    <t>PautangPeso</t>
+  </si>
+  <si>
+    <t>ph.lhl.pautangpeso</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa</t>
+  </si>
+  <si>
     <t>PautangPeso(test)</t>
   </si>
   <si>
-    <t>ph.lhl.pautangpeso</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa</t>
-  </si>
-  <si>
-    <t>PautangPeso</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa</t>
@@ -79,8 +82,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -94,15 +97,113 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,45 +217,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,74 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,19 +248,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,163 +338,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,15 +439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,21 +453,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,10 +474,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -528,6 +505,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -536,153 +528,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -690,10 +693,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1060,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1073,7 +1076,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3">
@@ -1082,7 +1085,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1090,25 +1093,25 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1116,28 +1119,46 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
-    <hyperlink ref="D3" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa"/>
-    <hyperlink ref="D2" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa"/>
+    <hyperlink ref="D7" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D6" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
+    <hyperlink ref="D4" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa"/>
+    <hyperlink ref="D3" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa"/>
+    <hyperlink ref="D2" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>app_name</t>
   </si>
@@ -34,19 +34,22 @@
     <t>build</t>
   </si>
   <si>
+    <t>PautangPeso(test)</t>
+  </si>
+  <si>
+    <t>ph.lhl.pautangpeso</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa</t>
+  </si>
+  <si>
     <t>PautangPeso</t>
   </si>
   <si>
-    <t>ph.lhl.pautangpeso</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa</t>
-  </si>
-  <si>
-    <t>PautangPeso(test)</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa</t>
@@ -81,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -97,20 +100,20 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -118,6 +121,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -126,17 +136,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,6 +160,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -164,31 +220,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -196,44 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,25 +257,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,151 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +460,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -476,7 +503,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,24 +525,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,164 +542,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -693,10 +696,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,13 +1021,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1063,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1080,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1093,7 +1096,7 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4">
@@ -1102,7 +1105,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1110,25 +1113,25 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1136,29 +1139,47 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D6" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
-    <hyperlink ref="D4" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa"/>
-    <hyperlink ref="D3" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa"/>
-    <hyperlink ref="D2" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D7" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa"/>
+    <hyperlink ref="D4" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa"/>
+    <hyperlink ref="D3" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D2" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>app_name</t>
   </si>
@@ -34,6 +34,18 @@
     <t>build</t>
   </si>
   <si>
+    <t>IPeso(test)</t>
+  </si>
+  <si>
+    <t>com.linkcredited.ipeso</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-1-test.ipa</t>
+  </si>
+  <si>
     <t>PautangPeso(test)</t>
   </si>
   <si>
@@ -64,16 +76,10 @@
     <t>IPeso</t>
   </si>
   <si>
-    <t>com.linkcredited.ipeso</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
     <t>https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa</t>
-  </si>
-  <si>
-    <t>1.0.1</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa</t>
@@ -84,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,37 +106,45 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,17 +158,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,51 +235,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,28 +247,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,6 +257,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,7 +293,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,13 +329,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,31 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,109 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +490,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -507,188 +548,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -696,10 +702,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1066,7 +1072,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1074,33 +1080,33 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1108,13 +1114,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1122,30 +1128,30 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1156,30 +1162,48 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D7" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa"/>
-    <hyperlink ref="D4" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa"/>
-    <hyperlink ref="D3" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D2" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D9" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
+    <hyperlink ref="D7" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa"/>
+    <hyperlink ref="D5" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa"/>
+    <hyperlink ref="D4" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D3" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D2" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-1-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-1-test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15200"/>
+    <workbookView windowWidth="22540" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>app_name</t>
   </si>
@@ -43,7 +43,7 @@
     <t>1.0.1</t>
   </si>
   <si>
-    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-1-test.ipa</t>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa</t>
   </si>
   <si>
     <t>PautangPeso(test)</t>
@@ -62,27 +62,6 @@
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa</t>
-  </si>
-  <si>
-    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa</t>
-  </si>
-  <si>
-    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa</t>
-  </si>
-  <si>
-    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa</t>
-  </si>
-  <si>
-    <t>IPeso</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa</t>
-  </si>
-  <si>
-    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa</t>
   </si>
 </sst>
 </file>
@@ -90,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,11 +99,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,28 +145,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -176,29 +177,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -206,35 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +197,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,91 +236,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,91 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +454,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -486,17 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +502,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -539,156 +527,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,13 +1006,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1109,101 +1088,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.1.ipa"/>
-    <hyperlink ref="D8" r:id="rId2" display="https://iosinhouse.tangbull.com/ipesoIosAdhoc/Ipeso.ipa"/>
-    <hyperlink ref="D7" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2.ipa"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.22.ipa"/>
-    <hyperlink ref="D5" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso1.0.2_2_test.ipa"/>
-    <hyperlink ref="D4" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D3" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D2" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-1-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-1-test.ipa"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>app_name</t>
   </si>
@@ -40,6 +40,12 @@
     <t>com.linkcredited.ipeso</t>
   </si>
   <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa</t>
+  </si>
+  <si>
     <t>1.0.1</t>
   </si>
   <si>
@@ -50,9 +56,6 @@
   </si>
   <si>
     <t>ph.lhl.pautangpeso</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa</t>
@@ -69,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -99,6 +102,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -106,16 +117,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,7 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,83 +210,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,19 +239,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,163 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,11 +457,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,17 +498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,17 +512,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,142 +535,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,13 +1009,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1056,43 +1059,61 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D2" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22540" windowHeight="14180"/>
+    <workbookView windowWidth="31560" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>app_name</t>
   </si>
@@ -34,6 +34,18 @@
     <t>build</t>
   </si>
   <si>
+    <t>PautangPeso(test)</t>
+  </si>
+  <si>
+    <t>ph.lhl.pautangpeso</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-1-test.ipa</t>
+  </si>
+  <si>
     <t>IPeso(test)</t>
   </si>
   <si>
@@ -50,12 +62,6 @@
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa</t>
-  </si>
-  <si>
-    <t>PautangPeso(test)</t>
-  </si>
-  <si>
-    <t>ph.lhl.pautangpeso</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa</t>
@@ -74,8 +80,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,21 +94,58 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -110,15 +153,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,104 +235,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,19 +245,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,25 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,133 +401,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +436,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,7 +467,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,30 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -535,148 +541,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -684,10 +690,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1054,21 +1060,21 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1076,44 +1082,62 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D2" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D3" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D2" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-1-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-1-test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -43,7 +43,7 @@
     <t>1.0.3</t>
   </si>
   <si>
-    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-1-test.ipa</t>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa</t>
   </si>
   <si>
     <t>IPeso(test)</t>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,6 +103,95 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,6 +205,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,8 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,100 +230,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,31 +245,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,55 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,37 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,43 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,15 +436,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,6 +450,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +502,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -521,162 +536,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1137,7 +1137,7 @@
     <hyperlink ref="D5" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
     <hyperlink ref="D4" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
     <hyperlink ref="D3" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D2" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-1-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-1-test.ipa"/>
+    <hyperlink ref="D2" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>app_name</t>
   </si>
@@ -34,15 +34,21 @@
     <t>build</t>
   </si>
   <si>
+    <t>PautangPeso</t>
+  </si>
+  <si>
+    <t>ph.lhl.pautangpeso</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa</t>
+  </si>
+  <si>
     <t>PautangPeso(test)</t>
   </si>
   <si>
-    <t>ph.lhl.pautangpeso</t>
-  </si>
-  <si>
-    <t>1.0.3</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa</t>
   </si>
   <si>
@@ -65,9 +71,6 @@
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa</t>
-  </si>
-  <si>
-    <t>PautangPeso</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa</t>
@@ -78,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,20 +97,20 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -130,8 +133,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +187,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -154,7 +218,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,75 +233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +248,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,15 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -502,6 +496,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -519,6 +522,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -527,162 +539,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -690,10 +693,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1060,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1068,29 +1071,29 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4">
@@ -1099,45 +1102,63 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D3" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D2" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D7" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D6" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D4" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D3" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D2" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>app_name</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>build</t>
+  </si>
+  <si>
+    <t>Pesoq(test)</t>
+  </si>
+  <si>
+    <t>com.tmart.pesoq</t>
+  </si>
+  <si>
+    <t>1.5.6</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa</t>
   </si>
   <si>
     <t>PautangPeso</t>
@@ -81,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -111,6 +123,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -118,16 +153,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,104 +250,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +473,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +489,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,22 +538,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,158 +551,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,13 +1030,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1063,7 +1075,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1071,47 +1083,47 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1119,46 +1131,64 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D6" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D4" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D3" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D2" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D7" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D4" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D3" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31560" windowHeight="13920"/>
+    <workbookView windowHeight="16840"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>app_name</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>build</t>
+  </si>
+  <si>
+    <t>PesoCach(test)</t>
+  </si>
+  <si>
+    <t>com.myloan.pesocash</t>
+  </si>
+  <si>
+    <t>1.3.0</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa</t>
   </si>
   <si>
     <t>Pesoq(test)</t>
@@ -93,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,6 +132,118 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,121 +257,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +463,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,34 +543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,180 +563,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,13 +1042,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.2109375" customWidth="1"/>
     <col min="2" max="2" width="22.7890625" customWidth="1"/>
@@ -1092,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1100,47 +1112,47 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1148,47 +1160,65 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D7" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D4" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D3" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D2" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D9" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D7" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D5" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D4" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D3" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D2" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840"/>
+    <workbookView windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>app_name</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>build</t>
+  </si>
+  <si>
+    <t>Cashwill(test)</t>
+  </si>
+  <si>
+    <t>ph.euiwr.cashwill</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-1-test.ipa</t>
   </si>
   <si>
     <t>PesoCach(test)</t>
@@ -105,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,6 +149,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,67 +208,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -227,13 +247,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,15 +260,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -272,12 +284,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,19 +386,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,145 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +482,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,11 +502,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,141 +575,126 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,16 +706,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1121,7 +1133,7 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1129,47 +1141,47 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1177,48 +1189,66 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D8" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D7" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D5" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D4" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D3" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D2" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D10" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D9" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D8" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D7" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D5" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D4" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D3" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D2" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-1-test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>app_name</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-1-test.ipa</t>
@@ -117,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -147,10 +150,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,37 +167,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,67 +272,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -284,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +485,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,6 +526,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -513,41 +551,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,118 +583,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,22 +703,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,10 +1057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1099,21 +1102,21 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1121,16 +1124,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1138,67 +1141,67 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1206,49 +1209,67 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D9" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D8" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D7" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D5" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D4" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D3" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D2" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-1-test.ipa"/>
+    <hyperlink ref="D11" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D9" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D8" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D6" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D5" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D4" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D3" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-1-test.ipa"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>app_name</t>
   </si>
@@ -34,19 +34,22 @@
     <t>build</t>
   </si>
   <si>
+    <t>Cashwill(prod)</t>
+  </si>
+  <si>
+    <t>ph.euiwr.cashwill</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-3-prod.ipa</t>
+  </si>
+  <si>
     <t>Cashwill(test)</t>
   </si>
   <si>
-    <t>ph.euiwr.cashwill</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa</t>
-  </si>
-  <si>
-    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-1-test.ipa</t>
   </si>
   <si>
     <t>PesoCach(test)</t>
@@ -120,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,6 +148,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +169,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -166,111 +273,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -287,13 +290,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,25 +374,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,138 +471,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,80 +481,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,6 +502,80 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -583,142 +586,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,7 +1063,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1102,12 +1105,12 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1116,24 +1119,24 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1141,16 +1144,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1158,16 +1161,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1175,16 +1178,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1192,16 +1195,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1209,16 +1212,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1226,16 +1229,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -1243,16 +1246,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1268,8 +1271,8 @@
     <hyperlink ref="D6" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
     <hyperlink ref="D5" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
     <hyperlink ref="D4" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D3" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-1-test.ipa"/>
-    <hyperlink ref="D2" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D3" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-3-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16860"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -40,15 +40,18 @@
     <t>ph.euiwr.cashwill</t>
   </si>
   <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa</t>
+  </si>
+  <si>
+    <t>Cashwill(test)</t>
+  </si>
+  <si>
     <t>1.0.0</t>
   </si>
   <si>
-    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-3-prod.ipa</t>
-  </si>
-  <si>
-    <t>Cashwill(test)</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa</t>
   </si>
   <si>
@@ -104,9 +107,6 @@
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa</t>
-  </si>
-  <si>
-    <t>1.0.1</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa</t>
@@ -124,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -154,14 +154,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -170,81 +162,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,7 +239,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,9 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,19 +290,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,49 +434,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,109 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,6 +481,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,27 +512,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,21 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,6 +564,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -586,118 +586,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,22 +706,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1105,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1116,10 +1116,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -1272,7 +1272,7 @@
     <hyperlink ref="D5" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
     <hyperlink ref="D4" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
     <hyperlink ref="D3" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D2" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-3-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>app_name</t>
   </si>
@@ -34,21 +34,27 @@
     <t>build</t>
   </si>
   <si>
+    <t>Cashwill(test)</t>
+  </si>
+  <si>
+    <t>ph.euiwr.cashwill</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa</t>
+  </si>
+  <si>
     <t>Cashwill(prod)</t>
   </si>
   <si>
-    <t>ph.euiwr.cashwill</t>
-  </si>
-  <si>
     <t>1.0.1</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa</t>
   </si>
   <si>
-    <t>Cashwill(test)</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
@@ -101,9 +107,6 @@
   </si>
   <si>
     <t>com.linkcredited.ipeso</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa</t>
@@ -125,8 +128,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,6 +151,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,67 +179,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -238,20 +208,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -260,22 +256,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,25 +293,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,157 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,21 +492,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,17 +520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +561,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -586,142 +589,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,10 +1063,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1122,38 +1125,38 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1161,36 +1164,36 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1198,24 +1201,24 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1229,50 +1232,68 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D10" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D9" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D8" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D6" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D5" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D4" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D3" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D2" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D12" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D11" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D10" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D9" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D6" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D5" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D4" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D3" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>app_name</t>
   </si>
@@ -34,19 +34,22 @@
     <t>build</t>
   </si>
   <si>
+    <t>Cashwill(prod)</t>
+  </si>
+  <si>
+    <t>ph.euiwr.cashwill</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa</t>
+  </si>
+  <si>
     <t>Cashwill(test)</t>
   </si>
   <si>
-    <t>ph.euiwr.cashwill</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa</t>
-  </si>
-  <si>
-    <t>Cashwill(prod)</t>
   </si>
   <si>
     <t>1.0.1</t>
@@ -126,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -156,15 +159,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,10 +190,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,91 +207,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,31 +296,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,151 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,24 +487,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,42 +505,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -576,6 +529,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -584,147 +567,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,7 +1066,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1119,10 +1122,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1136,44 +1139,44 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1181,64 +1184,64 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -1249,51 +1252,69 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D11" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D10" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D9" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D6" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D5" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D4" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D3" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D2" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D13" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D12" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D11" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D10" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D7" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D6" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D5" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D4" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D3" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D2" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>app_name</t>
   </si>
@@ -34,6 +34,18 @@
     <t>build</t>
   </si>
   <si>
+    <t>PautangPeso(test)</t>
+  </si>
+  <si>
+    <t>ph.lhl.pautangpeso</t>
+  </si>
+  <si>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa</t>
+  </si>
+  <si>
     <t>Cashwill(prod)</t>
   </si>
   <si>
@@ -91,16 +103,10 @@
     <t>PautangPeso</t>
   </si>
   <si>
-    <t>ph.lhl.pautangpeso</t>
-  </si>
-  <si>
     <t>1.0.3</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa</t>
-  </si>
-  <si>
-    <t>PautangPeso(test)</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa</t>
@@ -130,9 +136,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -156,6 +162,51 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,6 +218,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,114 +286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,25 +302,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,157 +452,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,60 +493,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,8 +514,62 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,8 +588,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,118 +598,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,22 +718,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,7 +1072,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1119,13 +1125,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1133,16 +1139,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1153,24 +1159,24 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1179,7 +1185,7 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1213,7 +1219,7 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1221,47 +1227,47 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1269,52 +1275,70 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D12" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D11" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D10" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D9" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D7" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D6" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D5" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D4" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D3" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D2" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D14" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D13" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D12" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D11" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D7" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D6" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D5" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D4" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D3" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>app_name</t>
   </si>
@@ -34,6 +34,18 @@
     <t>build</t>
   </si>
   <si>
+    <t>Pesoq(prod)</t>
+  </si>
+  <si>
+    <t>com.tmart.pesoq</t>
+  </si>
+  <si>
+    <t>1.5.6</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa</t>
+  </si>
+  <si>
     <t>PautangPeso(test)</t>
   </si>
   <si>
@@ -89,12 +101,6 @@
   </si>
   <si>
     <t>Pesoq(test)</t>
-  </si>
-  <si>
-    <t>com.tmart.pesoq</t>
-  </si>
-  <si>
-    <t>1.5.6</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa</t>
@@ -135,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -177,6 +183,36 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,15 +224,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +269,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -220,74 +286,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,181 +308,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,9 +519,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,7 +547,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +567,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,167 +599,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,7 +1078,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1117,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1142,13 +1148,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1156,16 +1162,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1176,24 +1182,24 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1202,7 +1208,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1230,61 +1236,61 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1292,53 +1298,71 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D13" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D12" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D11" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D10" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D7" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D6" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D5" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D4" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D3" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D2" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D15" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D14" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D13" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D12" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D11" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D10" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D9" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D8" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D7" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D6" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D5" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D4" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D3" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D2" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>app_name</t>
   </si>
@@ -34,6 +34,18 @@
     <t>build</t>
   </si>
   <si>
+    <t>PautangPeso</t>
+  </si>
+  <si>
+    <t>ph.lhl.pautangpeso</t>
+  </si>
+  <si>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa</t>
+  </si>
+  <si>
     <t>Pesoq(prod)</t>
   </si>
   <si>
@@ -49,12 +61,6 @@
     <t>PautangPeso(test)</t>
   </si>
   <si>
-    <t>ph.lhl.pautangpeso</t>
-  </si>
-  <si>
-    <t>1.0.4</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa</t>
   </si>
   <si>
@@ -104,9 +110,6 @@
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa</t>
-  </si>
-  <si>
-    <t>PautangPeso</t>
   </si>
   <si>
     <t>1.0.3</t>
@@ -142,9 +145,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -175,44 +178,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,6 +189,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -233,29 +266,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,36 +301,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -308,138 +311,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,48 +492,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,47 +502,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,11 +538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,147 +567,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1078,7 +1081,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1123,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1140,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1148,13 +1151,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1162,13 +1165,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -1179,13 +1182,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -1196,10 +1199,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1208,35 +1211,35 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>28</v>
@@ -1253,58 +1256,58 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>36</v>
@@ -1315,54 +1318,72 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D14" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D13" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D12" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D11" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D10" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D8" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D7" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D6" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D5" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D4" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D3" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D2" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D16" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D15" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D14" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D13" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D12" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D11" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D10" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D8" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D7" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D6" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D5" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D4" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D3" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>app_name</t>
   </si>
@@ -34,6 +34,18 @@
     <t>build</t>
   </si>
   <si>
+    <t>Pesoq(test)</t>
+  </si>
+  <si>
+    <t>com.tmart.pesoq</t>
+  </si>
+  <si>
+    <t>1.5.6</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa</t>
+  </si>
+  <si>
     <t>PautangPeso</t>
   </si>
   <si>
@@ -49,12 +61,6 @@
     <t>Pesoq(prod)</t>
   </si>
   <si>
-    <t>com.tmart.pesoq</t>
-  </si>
-  <si>
-    <t>1.5.6</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa</t>
   </si>
   <si>
@@ -104,9 +110,6 @@
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa</t>
-  </si>
-  <si>
-    <t>Pesoq(test)</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa</t>
@@ -146,8 +149,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -178,6 +181,89 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,10 +276,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,101 +290,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -311,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,11 +508,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,26 +547,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,35 +599,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,142 +610,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,7 +1084,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1126,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1143,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1160,7 +1163,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1168,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1182,13 +1185,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -1199,13 +1202,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
@@ -1216,10 +1219,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1228,35 +1231,35 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
@@ -1273,58 +1276,58 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>37</v>
@@ -1335,55 +1338,73 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D15" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D14" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D13" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D12" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D11" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D8" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D7" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D6" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D5" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D4" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D3" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D2" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D17" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D16" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D15" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D14" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D13" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D12" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D11" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D10" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D9" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D8" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D7" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D6" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D5" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D4" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D3" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15200"/>
+    <workbookView windowWidth="20500" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>app_name</t>
   </si>
@@ -34,10 +34,19 @@
     <t>build</t>
   </si>
   <si>
+    <t>PesoQ</t>
+  </si>
+  <si>
+    <t>com.tmart.pesoq</t>
+  </si>
+  <si>
+    <t>1.5.7</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa</t>
+  </si>
+  <si>
     <t>Pesoq(test)</t>
-  </si>
-  <si>
-    <t>com.tmart.pesoq</t>
   </si>
   <si>
     <t>1.5.6</t>
@@ -147,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -178,12 +187,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -191,19 +263,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,96 +313,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,187 +323,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +514,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,80 +609,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -610,142 +619,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1137,64 +1146,64 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1202,16 +1211,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1219,16 +1228,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1236,50 +1245,50 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1290,64 +1299,64 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1355,56 +1364,74 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D16" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D15" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D14" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D13" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D12" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D11" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D9" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D8" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D7" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D6" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D5" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D4" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D3" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D2" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D18" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D16" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D15" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D14" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D13" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D12" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D11" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D9" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D8" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D7" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D6" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D5" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D4" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D3" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D2" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20500" windowHeight="12200"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>app_name</t>
   </si>
@@ -34,6 +34,18 @@
     <t>build</t>
   </si>
   <si>
+    <t>IPeso VIP(test)</t>
+  </si>
+  <si>
+    <t>com.linkcredited.ipesovip</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa</t>
+  </si>
+  <si>
     <t>PesoQ</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa</t>
-  </si>
-  <si>
-    <t>1.0.1</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa</t>
@@ -156,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,7 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,13 +205,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,76 +218,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,6 +271,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -306,11 +301,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -323,13 +332,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,25 +458,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,139 +494,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,9 +552,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,32 +617,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -619,142 +628,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1138,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1146,13 +1155,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1160,10 +1169,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1172,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1180,44 +1189,44 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -1231,13 +1240,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1245,16 +1254,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1265,47 +1274,47 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1313,67 +1322,67 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1381,57 +1390,75 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D16" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D15" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D14" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D13" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D12" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D11" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D9" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D8" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D7" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D6" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D5" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D4" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D3" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D2" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D19" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D18" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D17" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D16" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D15" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D14" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D13" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D12" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D11" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D10" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D9" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D8" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D7" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D6" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D5" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D4" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D3" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D2" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15200"/>
+    <workbookView windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>app_name</t>
   </si>
@@ -34,13 +34,19 @@
     <t>build</t>
   </si>
   <si>
+    <t>IPeso VIP</t>
+  </si>
+  <si>
+    <t>com.linkcredited.ipesovip</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-1.ipa</t>
+  </si>
+  <si>
     <t>IPeso VIP(test)</t>
-  </si>
-  <si>
-    <t>com.linkcredited.ipesovip</t>
-  </si>
-  <si>
-    <t>1.0.1</t>
   </si>
   <si>
     <t>https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa</t>
@@ -166,9 +172,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -202,6 +208,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -210,49 +315,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,66 +328,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -338,25 +344,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,145 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,21 +529,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,22 +541,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,17 +586,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +620,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,136 +637,136 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,7 +1108,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1155,30 +1161,30 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1186,36 +1192,36 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1223,16 +1229,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1240,13 +1246,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1254,13 +1260,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
@@ -1271,16 +1277,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1288,50 +1294,50 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1339,67 +1345,67 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1407,58 +1413,76 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D18" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D17" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D16" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D15" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D14" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D13" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D12" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D10" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D9" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D8" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D7" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D6" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D5" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D4" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D3" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D2" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D20" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D19" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D18" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D17" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D16" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D15" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D14" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D13" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D12" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D10" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D9" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D8" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D7" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D6" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D5" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D4" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D3" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D2" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-1.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -43,7 +43,7 @@
     <t>1.0.1</t>
   </si>
   <si>
-    <t>https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-1.ipa</t>
+    <t>https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa</t>
   </si>
   <si>
     <t>IPeso VIP(test)</t>
@@ -171,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -187,7 +187,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,28 +195,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,10 +225,84 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,78 +315,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +541,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -552,6 +576,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,21 +619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -596,159 +629,126 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,25 +757,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,10 +783,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1153,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1166,7 +1166,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3">
@@ -1183,7 +1183,7 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4">
@@ -1200,7 +1200,7 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5">
@@ -1217,7 +1217,7 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6">
@@ -1234,7 +1234,7 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7">
@@ -1251,7 +1251,7 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E8">
@@ -1268,7 +1268,7 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E9">
@@ -1285,7 +1285,7 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E10">
@@ -1302,7 +1302,7 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11">
@@ -1319,7 +1319,7 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E12">
@@ -1336,7 +1336,7 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E13">
@@ -1353,7 +1353,7 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E14">
@@ -1370,7 +1370,7 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15">
@@ -1387,7 +1387,7 @@
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E16">
@@ -1404,7 +1404,7 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E17">
@@ -1421,7 +1421,7 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E18">
@@ -1438,7 +1438,7 @@
       <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E19">
@@ -1455,7 +1455,7 @@
       <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E20">
@@ -1482,7 +1482,7 @@
     <hyperlink ref="D5" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
     <hyperlink ref="D4" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
     <hyperlink ref="D3" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D2" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-1.ipa"/>
+    <hyperlink ref="D2" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>app_name</t>
   </si>
@@ -34,13 +34,22 @@
     <t>build</t>
   </si>
   <si>
+    <t>PesoQ Pro(test)</t>
+  </si>
+  <si>
+    <t>com.loan.pesoqpro</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa</t>
+  </si>
+  <si>
     <t>IPeso VIP</t>
   </si>
   <si>
     <t>com.linkcredited.ipesovip</t>
-  </si>
-  <si>
-    <t>1.0.1</t>
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa</t>
@@ -171,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -182,6 +191,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,9 +210,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,13 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -224,6 +248,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -233,7 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +272,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,65 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -321,13 +337,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -338,19 +347,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,163 +515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,24 +538,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,6 +556,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -576,6 +576,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,164 +638,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,10 +792,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,10 +1117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1153,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1161,46 +1170,46 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E5">
@@ -1212,64 +1221,64 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1277,16 +1286,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1294,16 +1303,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1311,50 +1320,50 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1365,64 +1374,64 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1430,59 +1439,77 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D19" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D18" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D17" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D16" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D15" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D14" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D13" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D10" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D9" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D8" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D7" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D6" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D5" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D4" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D3" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D2" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D21" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D20" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D19" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D18" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D17" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D16" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D15" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D14" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D13" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D12" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D11" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D10" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D9" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D8" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D7" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D6" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D5" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D4" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D3" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D2" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16860"/>
+    <workbookView windowHeight="15160"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>app_name</t>
   </si>
@@ -34,13 +34,19 @@
     <t>build</t>
   </si>
   <si>
+    <t>PesoQ Pro</t>
+  </si>
+  <si>
+    <t>com.loan.pesoqpro</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa</t>
+  </si>
+  <si>
     <t>PesoQ Pro(test)</t>
-  </si>
-  <si>
-    <t>com.loan.pesoqpro</t>
-  </si>
-  <si>
-    <t>1.0.1</t>
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa</t>
@@ -180,9 +186,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -211,14 +217,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,33 +323,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,73 +337,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,150 +353,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -498,36 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,21 +544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,6 +571,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -591,20 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,17 +627,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,142 +649,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1117,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1170,33 +1176,33 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1204,30 +1210,30 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1235,36 +1241,36 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1272,16 +1278,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1289,13 +1295,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1303,13 +1309,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
@@ -1320,16 +1326,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1337,50 +1343,50 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1388,67 +1394,67 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1456,60 +1462,78 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D20" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D19" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D18" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D17" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D16" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D15" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D14" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D13" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D11" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D10" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D9" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D8" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D7" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D6" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D5" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D4" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D3" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
-    <hyperlink ref="D2" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D22" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D21" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D20" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D19" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D18" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D17" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D16" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D15" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D14" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D11" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D10" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D9" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D8" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D7" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D6" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D5" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D4" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D3" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D2" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t>app_name</t>
   </si>
@@ -34,19 +34,22 @@
     <t>build</t>
   </si>
   <si>
+    <t>PesoQ Pro(test)</t>
+  </si>
+  <si>
+    <t>com.loan.pesoqpro</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa</t>
+  </si>
+  <si>
     <t>PesoQ Pro</t>
   </si>
   <si>
-    <t>com.loan.pesoqpro</t>
-  </si>
-  <si>
-    <t>1.0.1</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa</t>
-  </si>
-  <si>
-    <t>PesoQ Pro(test)</t>
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa</t>
@@ -186,9 +189,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -217,14 +220,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,8 +287,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,37 +311,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -292,14 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -309,14 +327,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,13 +341,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -353,55 +356,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,127 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +547,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,32 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -635,156 +647,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,7 +1126,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1168,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1190,67 +1193,67 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1258,67 +1261,67 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1326,16 +1329,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1343,13 +1346,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>37</v>
@@ -1360,47 +1363,47 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>44</v>
@@ -1411,64 +1414,64 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -1479,61 +1482,79 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D21" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D20" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D19" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D18" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D17" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D16" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D15" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D14" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D11" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D10" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D9" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D8" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D7" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D6" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D5" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D4" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
-    <hyperlink ref="D3" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D2" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D23" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D21" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D20" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D19" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D18" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D17" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D16" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D15" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D14" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D13" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D12" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D11" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D10" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D9" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D8" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D7" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D6" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D5" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D4" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D3" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15160"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>app_name</t>
   </si>
@@ -40,15 +40,24 @@
     <t>com.loan.pesoqpro</t>
   </si>
   <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa</t>
+  </si>
+  <si>
+    <t>PesoQ Pro</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa</t>
+  </si>
+  <si>
     <t>1.0.1</t>
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa</t>
   </si>
   <si>
-    <t>PesoQ Pro</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa</t>
   </si>
   <si>
@@ -119,9 +128,6 @@
   </si>
   <si>
     <t>ph.euiwr.cashwill</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa</t>
@@ -189,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -200,6 +206,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,9 +225,78 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +304,35 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,113 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,61 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,8 +598,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,148 +658,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -801,10 +807,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1171,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1184,7 +1190,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3">
@@ -1199,44 +1205,44 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1244,67 +1250,67 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1312,16 +1318,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1329,33 +1335,33 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1363,16 +1369,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1380,33 +1386,33 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
       <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1414,147 +1420,183 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D23" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D22" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D21" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D20" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D19" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D18" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D17" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D16" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D15" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D14" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D12" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D11" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D10" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D9" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D8" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D7" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D6" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D5" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
-    <hyperlink ref="D4" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D3" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D2" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D25" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D24" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D23" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D22" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D21" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D20" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D19" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D18" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D17" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D16" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D15" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D14" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D13" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D12" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D11" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D10" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D9" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D8" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D7" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D6" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D5" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D4" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D2" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D3" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>app_name</t>
   </si>
@@ -34,19 +34,22 @@
     <t>build</t>
   </si>
   <si>
+    <t>PesoQ Pro</t>
+  </si>
+  <si>
+    <t>com.loan.pesoqpro</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa</t>
+  </si>
+  <si>
     <t>PesoQ Pro(test)</t>
   </si>
   <si>
-    <t>com.loan.pesoqpro</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa</t>
-  </si>
-  <si>
-    <t>PesoQ Pro</t>
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa</t>
@@ -195,8 +198,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -211,7 +214,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +222,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +245,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,14 +305,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -263,13 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -278,80 +349,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -362,13 +365,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,19 +509,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,145 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,41 +559,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +618,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -638,168 +656,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -807,10 +810,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1177,7 +1180,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1205,13 +1208,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1222,13 +1225,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1239,9 +1242,9 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6">
@@ -1250,67 +1253,67 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1318,67 +1321,67 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1386,16 +1389,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1403,15 +1406,15 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E16">
@@ -1420,49 +1423,49 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E19">
@@ -1471,66 +1474,66 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E23">
@@ -1539,27 +1542,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1568,35 +1571,53 @@
         <v>56</v>
       </c>
       <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D25" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D24" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D23" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D22" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D21" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D20" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D19" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D18" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D17" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D16" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D15" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D13" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D12" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D11" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D10" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D9" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D8" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D7" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
-    <hyperlink ref="D6" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D5" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D4" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
-    <hyperlink ref="D2" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D3" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D26" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D25" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D24" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D23" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D22" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D21" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D20" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D19" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D18" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D17" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D16" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D15" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D13" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D12" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D11" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D10" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D9" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D8" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D7" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D6" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D5" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D3" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D4" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
   <si>
     <t>app_name</t>
   </si>
@@ -40,6 +40,12 @@
     <t>com.loan.pesoqpro</t>
   </si>
   <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa</t>
+  </si>
+  <si>
     <t>1.0.2</t>
   </si>
   <si>
@@ -164,9 +170,6 @@
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa</t>
-  </si>
-  <si>
-    <t>1.0.3</t>
   </si>
   <si>
     <t>https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa</t>
@@ -198,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -228,13 +231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -244,9 +240,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,11 +285,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,14 +331,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,66 +358,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,37 +368,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,79 +476,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,37 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,19 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +596,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -603,32 +621,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,147 +648,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,7 +1138,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1180,38 +1183,38 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1219,50 +1222,50 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1270,36 +1273,36 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1307,30 +1310,30 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1338,36 +1341,36 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1375,16 +1378,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1392,13 +1395,13 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1406,13 +1409,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>40</v>
@@ -1423,16 +1426,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1440,50 +1443,50 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1491,64 +1494,64 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>54</v>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -1559,65 +1562,83 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D25" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D24" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D23" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D22" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D21" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D20" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D19" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D18" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D17" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D16" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D13" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D12" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D11" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D10" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D9" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D8" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
-    <hyperlink ref="D7" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D6" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D5" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
-    <hyperlink ref="D3" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D4" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D2" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
+    <hyperlink ref="D27" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D26" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D25" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D24" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D23" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D22" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D21" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D20" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D19" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D18" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D17" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D16" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D15" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D14" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D13" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D12" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D11" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D10" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D9" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D8" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D7" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D6" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D4" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D5" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D3" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>app_name</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>1.0.3</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa</t>
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa</t>
@@ -201,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -231,6 +234,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -239,89 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -329,35 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,187 +371,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,21 +562,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,11 +574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,21 +605,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -636,6 +615,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,147 +647,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,7 +1141,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1183,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1194,43 +1197,43 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5">
@@ -1239,47 +1242,47 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
@@ -1290,67 +1293,67 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1358,67 +1361,67 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1426,16 +1429,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1443,13 +1446,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>43</v>
@@ -1460,47 +1463,47 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>50</v>
@@ -1511,64 +1514,64 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>56</v>
@@ -1579,66 +1582,84 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D26" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D25" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D24" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D23" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D22" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D21" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D20" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D19" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D18" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D17" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D16" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D15" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D14" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D13" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D12" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D11" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D10" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D9" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
-    <hyperlink ref="D8" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D7" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D6" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
-    <hyperlink ref="D4" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D5" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D3" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
-    <hyperlink ref="D2" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
+    <hyperlink ref="D28" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D27" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D26" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D25" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D24" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D23" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D22" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D21" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D20" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D19" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D18" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D17" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D16" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D14" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D13" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D12" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D11" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D10" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D9" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D8" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D7" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D5" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D6" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D4" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
+    <hyperlink ref="D3" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId27" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>app_name</t>
   </si>
@@ -34,6 +34,18 @@
     <t>build</t>
   </si>
   <si>
+    <t>IPeso VIP(test)</t>
+  </si>
+  <si>
+    <t>com.linkcredited.ipesovip</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-test-1.0.1-3.ipa</t>
+  </si>
+  <si>
     <t>PesoQ Pro</t>
   </si>
   <si>
@@ -64,9 +76,6 @@
     <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa</t>
   </si>
   <si>
-    <t>1.0.1</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa</t>
   </si>
   <si>
@@ -79,13 +88,7 @@
     <t>IPeso VIP</t>
   </si>
   <si>
-    <t>com.linkcredited.ipesovip</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa</t>
-  </si>
-  <si>
-    <t>IPeso VIP(test)</t>
   </si>
   <si>
     <t>https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa</t>
@@ -204,9 +207,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -234,6 +237,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -242,7 +291,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,30 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,21 +337,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,39 +359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,13 +374,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +512,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,157 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +572,65 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -590,21 +652,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -618,191 +665,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,7 +1144,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1186,72 +1189,72 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1259,50 +1262,50 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1310,19 +1313,19 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1330,47 +1333,47 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1378,67 +1381,67 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1446,16 +1449,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1463,13 +1466,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>44</v>
@@ -1480,47 +1483,47 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>51</v>
@@ -1531,64 +1534,64 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>57</v>
@@ -1599,67 +1602,85 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D27" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D26" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D25" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D24" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D23" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D22" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D21" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D20" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D19" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D18" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D17" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D14" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D13" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D12" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D11" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D10" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
-    <hyperlink ref="D9" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D8" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D7" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
-    <hyperlink ref="D5" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D6" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D4" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
-    <hyperlink ref="D3" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
-    <hyperlink ref="D2" r:id="rId27" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa"/>
+    <hyperlink ref="D29" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D28" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D27" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D26" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D25" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D24" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D23" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D22" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D21" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D20" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D19" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D18" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D17" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D16" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D15" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D14" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D13" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D12" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D11" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D10" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D9" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D8" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D6" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D7" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D5" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
+    <hyperlink ref="D4" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
+    <hyperlink ref="D3" r:id="rId27" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId28" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-test-1.0.1-3.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
   <si>
     <t>app_name</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>1.0.1</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa</t>
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-test-1.0.1-3.ipa</t>
@@ -207,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -237,6 +240,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -246,21 +294,21 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -268,30 +316,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,65 +361,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -374,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,17 +583,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +615,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,41 +662,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,127 +673,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,10 +805,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1144,7 +1147,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1189,88 +1192,88 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7">
@@ -1279,27 +1282,27 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1308,15 +1311,15 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1330,24 +1333,24 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1355,42 +1358,42 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1398,67 +1401,67 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1466,16 +1469,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1483,13 +1486,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>45</v>
@@ -1500,47 +1503,47 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
@@ -1551,64 +1554,64 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>58</v>
@@ -1619,68 +1622,86 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D28" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D27" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D26" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D25" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D24" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D23" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D22" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D21" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D20" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D19" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D18" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D17" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D15" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D14" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D13" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D12" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D11" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
-    <hyperlink ref="D10" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D9" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D8" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
-    <hyperlink ref="D6" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D7" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D5" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
-    <hyperlink ref="D4" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
-    <hyperlink ref="D3" r:id="rId27" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa"/>
-    <hyperlink ref="D2" r:id="rId28" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D30" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D29" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D28" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D27" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D26" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D25" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D24" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D23" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D22" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D21" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D20" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D19" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D18" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D17" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D15" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D14" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D13" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D12" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D11" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D10" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D9" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D7" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D8" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D6" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
+    <hyperlink ref="D5" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
+    <hyperlink ref="D4" r:id="rId27" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa"/>
+    <hyperlink ref="D3" r:id="rId28" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D2" r:id="rId29" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowWidth="27580" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
   <si>
     <t>app_name</t>
   </si>
@@ -40,6 +40,12 @@
     <t>com.linkcredited.ipesovip</t>
   </si>
   <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa</t>
+  </si>
+  <si>
     <t>1.0.1</t>
   </si>
   <si>
@@ -62,9 +68,6 @@
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa</t>
@@ -211,9 +214,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -248,6 +251,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -256,7 +267,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,21 +348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -295,21 +358,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -322,51 +370,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,31 +386,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,145 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,11 +574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,37 +593,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,26 +615,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,144 +630,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1192,7 +1195,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1203,94 +1206,94 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8">
@@ -1299,10 +1302,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1311,35 +1314,35 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
@@ -1350,67 +1353,67 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1418,67 +1421,67 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1486,16 +1489,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1503,10 +1506,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1520,47 +1523,47 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>53</v>
@@ -1571,61 +1574,61 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1639,69 +1642,87 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D29" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D28" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D27" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D26" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D25" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D24" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D23" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D22" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D21" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D20" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D19" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D18" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D17" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D15" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D14" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D13" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D12" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
-    <hyperlink ref="D11" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D10" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D9" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
-    <hyperlink ref="D7" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D8" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D6" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
-    <hyperlink ref="D5" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
-    <hyperlink ref="D4" r:id="rId27" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa"/>
-    <hyperlink ref="D3" r:id="rId28" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-test-1.0.1-3.ipa"/>
-    <hyperlink ref="D2" r:id="rId29" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa"/>
+    <hyperlink ref="D31" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D30" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D29" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D28" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D27" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D26" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D25" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D24" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D23" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D22" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D21" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D20" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D19" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D18" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D17" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D16" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D15" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D14" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D13" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D12" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D11" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D10" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D8" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D9" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D7" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
+    <hyperlink ref="D6" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
+    <hyperlink ref="D5" r:id="rId27" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa"/>
+    <hyperlink ref="D4" r:id="rId28" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D3" r:id="rId29" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa"/>
+    <hyperlink ref="D2" r:id="rId30" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
   <si>
     <t>app_name</t>
   </si>
@@ -34,15 +34,21 @@
     <t>build</t>
   </si>
   <si>
+    <t>IPeso VIP</t>
+  </si>
+  <si>
+    <t>com.linkcredited.ipesovip</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-prod.ipa</t>
+  </si>
+  <si>
     <t>IPeso VIP(test)</t>
   </si>
   <si>
-    <t>com.linkcredited.ipesovip</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
     <t>https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa</t>
-  </si>
-  <si>
-    <t>IPeso VIP</t>
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa</t>
@@ -214,9 +217,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -250,6 +253,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -258,16 +336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,36 +346,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,28 +360,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -348,28 +367,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -386,13 +389,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,13 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,19 +527,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,109 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,26 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,7 +611,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,19 +619,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,17 +655,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,139 +679,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1150,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1195,123 +1198,123 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1319,50 +1322,50 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1370,19 +1373,19 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1393,44 +1396,44 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1438,67 +1441,67 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1506,16 +1509,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1523,13 +1526,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>47</v>
@@ -1540,47 +1543,47 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>54</v>
@@ -1591,64 +1594,64 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>60</v>
@@ -1659,70 +1662,88 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D30" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D29" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D28" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D27" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D26" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D25" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D24" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D23" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D22" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D21" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D20" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D19" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D18" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D17" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D16" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D15" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D14" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D13" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
-    <hyperlink ref="D12" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D11" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D10" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
-    <hyperlink ref="D8" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D9" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D7" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
-    <hyperlink ref="D6" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
-    <hyperlink ref="D5" r:id="rId27" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa"/>
-    <hyperlink ref="D4" r:id="rId28" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-test-1.0.1-3.ipa"/>
-    <hyperlink ref="D3" r:id="rId29" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa"/>
-    <hyperlink ref="D2" r:id="rId30" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D32" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D31" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D30" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D29" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D28" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D27" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D26" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D25" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D24" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D23" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D22" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D21" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D20" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D18" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D16" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D15" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D14" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D13" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D12" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D11" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D9" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D10" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D8" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
+    <hyperlink ref="D7" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
+    <hyperlink ref="D6" r:id="rId27" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa"/>
+    <hyperlink ref="D5" r:id="rId28" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D4" r:id="rId29" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa"/>
+    <hyperlink ref="D3" r:id="rId30" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D2" r:id="rId31" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t>app_name</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>1.0.2</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-2-prod.ipa</t>
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-prod.ipa</t>
@@ -216,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -227,6 +230,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,9 +249,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,8 +263,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,33 +355,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,35 +369,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -343,36 +376,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,19 +386,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,37 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,121 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,50 +580,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +600,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,11 +639,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,148 +682,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -828,10 +831,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1203,7 +1206,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1211,8 +1214,8 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1220,112 +1223,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1339,49 +1342,49 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E13">
@@ -1390,67 +1393,67 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1458,67 +1461,67 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1526,16 +1529,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1543,15 +1546,15 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E23">
@@ -1560,49 +1563,49 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E26">
@@ -1611,66 +1614,66 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E30">
@@ -1679,27 +1682,27 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1708,42 +1711,60 @@
         <v>63</v>
       </c>
       <c r="E32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D32" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
-    <hyperlink ref="D31" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
-    <hyperlink ref="D30" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
-    <hyperlink ref="D29" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
-    <hyperlink ref="D28" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
-    <hyperlink ref="D27" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
-    <hyperlink ref="D26" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
-    <hyperlink ref="D25" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
-    <hyperlink ref="D24" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
-    <hyperlink ref="D23" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D22" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D21" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D20" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
-    <hyperlink ref="D18" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
-    <hyperlink ref="D16" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
-    <hyperlink ref="D15" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D14" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
-    <hyperlink ref="D13" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
-    <hyperlink ref="D12" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
-    <hyperlink ref="D11" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
-    <hyperlink ref="D9" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D10" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
-    <hyperlink ref="D8" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
-    <hyperlink ref="D7" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
-    <hyperlink ref="D6" r:id="rId27" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa"/>
-    <hyperlink ref="D5" r:id="rId28" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-test-1.0.1-3.ipa"/>
-    <hyperlink ref="D4" r:id="rId29" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa"/>
-    <hyperlink ref="D3" r:id="rId30" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa"/>
-    <hyperlink ref="D2" r:id="rId31" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D33" r:id="rId1" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-3.ipa"/>
+    <hyperlink ref="D32" r:id="rId2" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.2-4.ipa"/>
+    <hyperlink ref="D31" r:id="rId3" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.1-test1.ipa"/>
+    <hyperlink ref="D30" r:id="rId4" display="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/Ipeso-1.0.2-2-test.ipa"/>
+    <hyperlink ref="D29" r:id="rId5" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-2-test.ipa"/>
+    <hyperlink ref="D28" r:id="rId6" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/pautangpeso-1.0.3-3-prod.ipa"/>
+    <hyperlink ref="D27" r:id="rId7" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesoq-test-1.5.6-3.ipa"/>
+    <hyperlink ref="D26" r:id="rId8" display="https://bitbucket.org/cop-dev/ios-apps/downloads/pesocash-test-1.3.0-1.ipa"/>
+    <hyperlink ref="D25" r:id="rId9" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.0-2.test.ipa"/>
+    <hyperlink ref="D24" r:id="rId10" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D23" r:id="rId11" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D22" r:id="rId12" display="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa" tooltip="https://bitbucket.org/cop-dev/ios-apps/downloads/cashwill-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D21" r:id="rId13" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-test.ipa"/>
+    <hyperlink ref="D20" r:id="rId14" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-prod.ipa"/>
+    <hyperlink ref="D19" r:id="rId15" display="https://bitbucket.org/ios4/ios/downloads/pautangpeso-1.0.4-1-prod.ipa"/>
+    <hyperlink ref="D18" r:id="rId16" display="https://bitbucket.org/ios4/ios/downloads/pesoq-1.5.6-3-test.ipa"/>
+    <hyperlink ref="D17" r:id="rId17" display="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa" tooltip="https://bitbucket.org/ios4/ios/downloads/pesoq-prod-1.5.7-1.ipa"/>
+    <hyperlink ref="D16" r:id="rId18" display="https://bitbucket.org/ios4/ios/downloads/ipesovip-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D15" r:id="rId19" display="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/ipesovip-prod-1.0.1-2.ipa"/>
+    <hyperlink ref="D14" r:id="rId20" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-1.ipa"/>
+    <hyperlink ref="D13" r:id="rId21" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.1-1-prod.ipa"/>
+    <hyperlink ref="D12" r:id="rId22" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D10" r:id="rId23" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D11" r:id="rId24" display="https://bitbucket.org/zhufine/iosfine/downloads/pesoq-pro-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D9" r:id="rId25" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.2-2-prod.ipa"/>
+    <hyperlink ref="D8" r:id="rId26" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-1-prod.ipa"/>
+    <hyperlink ref="D7" r:id="rId27" display="https://bitbucket.org/zhufine/iosapp/downloads/pesoq-pro-1.0.3-2-prod.ipa"/>
+    <hyperlink ref="D6" r:id="rId28" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-test-1.0.1-3.ipa"/>
+    <hyperlink ref="D5" r:id="rId29" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa"/>
+    <hyperlink ref="D4" r:id="rId30" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa"/>
+    <hyperlink ref="D3" r:id="rId31" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-prod.ipa"/>
+    <hyperlink ref="D2" r:id="rId32" display="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-2-prod.ipa" tooltip="https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-2-prod.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27580" windowHeight="14880"/>
+    <workbookView windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
   <si>
     <t>app_name</t>
   </si>
@@ -34,6 +34,18 @@
     <t>build</t>
   </si>
   <si>
+    <t>IPesoNew(test)</t>
+  </si>
+  <si>
+    <t>ph.dx.some.ipios</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/ios4/ios/downloads/ipeso-ios-new-1.0.1-1-test.ipa</t>
+  </si>
+  <si>
     <t>IPeso VIP</t>
   </si>
   <si>
@@ -53,9 +65,6 @@
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.2-1-test.ipa</t>
-  </si>
-  <si>
-    <t>1.0.1</t>
   </si>
   <si>
     <t>https://bitbucket.org/zhufine/iosapp/downloads/ipesovip-1.0.1-4-test.ipa</t>
@@ -220,9 +229,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -235,7 +244,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,12 +252,41 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -256,8 +294,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,60 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,35 +379,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -386,187 +395,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,11 +589,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,49 +672,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,168 +686,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat